--- a/biology/Zoologie/Chiasmodon/Chiasmodon.xlsx
+++ b/biology/Zoologie/Chiasmodon/Chiasmodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiasmodon est un genre de poissons abyssaux de la famille des Chiasmodontidae. 
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (14 février 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (14 février 2021) :
 Chiasmodon asper Melo, 2009
 Chiasmodon braueri Weber, 1913
 Chiasmodon harteli Melo, 2009
 Chiasmodon microcephalus Norman, 1929
-Chiasmodon niger Johnson, 1864 - espèce type[2]
+Chiasmodon niger Johnson, 1864 - espèce type
 Chiasmodon pluriradiatus Parr, 1933
 Chiasmodon subniger Garman, 1899</t>
         </is>
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) James Yate Johnson, « Descriptions of three new genera of marine fishes obtained at Madeira », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1863,‎ 1863, p. 403-410 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
